--- a/Documentos de Entrega/Pós Apresentação/Controle.xlsx
+++ b/Documentos de Entrega/Pós Apresentação/Controle.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Controle de Entregas Pós Apresentação</t>
   </si>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,11 +109,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -175,7 +175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -210,7 +210,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -387,7 +387,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -398,7 +398,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,72 +428,72 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -503,6 +503,12 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos de Entrega/Pós Apresentação/Controle.xlsx
+++ b/Documentos de Entrega/Pós Apresentação/Controle.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Controle de Entregas Pós Apresentação</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Folha de Registro do Documento</t>
+  </si>
+  <si>
+    <t>CD com Artigo</t>
+  </si>
+  <si>
+    <t>Termo Artigo</t>
   </si>
 </sst>
 </file>
@@ -387,7 +393,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -395,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +455,9 @@
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -491,7 +499,9 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
@@ -499,6 +509,9 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -509,6 +522,16 @@
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos de Entrega/Pós Apresentação/Controle.xlsx
+++ b/Documentos de Entrega/Pós Apresentação/Controle.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Controle de Entregas Pós Apresentação</t>
   </si>
@@ -404,7 +404,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +470,9 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -481,7 +483,9 @@
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -492,7 +496,9 @@
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -532,6 +538,12 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
